--- a/resources/variants/В15.xlsx
+++ b/resources/variants/В15.xlsx
@@ -8,33 +8,12 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
-  <si>
-    <t xml:space="preserve">№ п/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шифр работ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Номер отделения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Число людей, выполняющих работы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Продолжительность работ (час)</t>
-  </si>
-  <si>
-    <t>Прим.</t>
-  </si>
-  <si>
-    <t>1.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>0-1</t>
   </si>
@@ -48,9 +27,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>2.</t>
-  </si>
-  <si>
     <t>0-2</t>
   </si>
   <si>
@@ -60,42 +36,27 @@
     <t>6</t>
   </si>
   <si>
-    <t>3.</t>
-  </si>
-  <si>
     <t>0-3</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>4.</t>
-  </si>
-  <si>
     <t>1-2</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>5.</t>
-  </si>
-  <si>
     <t>1-4</t>
   </si>
   <si>
-    <t>6.</t>
-  </si>
-  <si>
     <t>2-5</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>7.</t>
-  </si>
-  <si>
     <t>2-7</t>
   </si>
   <si>
@@ -105,61 +66,34 @@
     <t>4</t>
   </si>
   <si>
-    <t>8.</t>
-  </si>
-  <si>
     <t>3-4</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>9.</t>
-  </si>
-  <si>
     <t>3-6</t>
   </si>
   <si>
-    <t>10.</t>
-  </si>
-  <si>
     <t>4-5</t>
   </si>
   <si>
-    <t>11.</t>
-  </si>
-  <si>
     <t>4-6</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>12.</t>
-  </si>
-  <si>
     <t>5-7</t>
   </si>
   <si>
-    <t>13.</t>
-  </si>
-  <si>
     <t>5-8</t>
   </si>
   <si>
-    <t>14.</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>15.</t>
-  </si>
-  <si>
     <t>7-9</t>
-  </si>
-  <si>
-    <t>16.</t>
   </si>
   <si>
     <t>8-9</t>
@@ -216,12 +150,9 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" quotePrefix="0" pivotButton="0"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -730,14 +661,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" ht="103.5">
+    <row r="1" ht="103.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,305 +685,222 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="17.25">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" ht="17.25" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="4" ht="17.25" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" ht="17.25">
-      <c r="A3" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" ht="17.25">
-      <c r="A4" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="8" ht="17.25" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" ht="17.25">
-      <c r="A5" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" ht="17.25">
-      <c r="A6" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" ht="17.25">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" ht="17.25">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" ht="17.25">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" ht="17.25">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" ht="17.25">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" ht="17.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" ht="17.25" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" ht="17.25">
-      <c r="A13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" ht="17.25">
-      <c r="A14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" ht="17.25">
-      <c r="A15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" ht="17.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" ht="17.25">
-      <c r="A17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" ht="17.25" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>